--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,55 +43,58 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>cut</t>
   </si>
   <si>
     <t>risk</t>
@@ -100,12 +103,21 @@
     <t>stop</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -118,10 +130,19 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
@@ -133,118 +154,130 @@
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>stay</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
@@ -605,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -724,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,31 +775,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>0.925</v>
+      </c>
+      <c r="L4">
+        <v>111</v>
+      </c>
+      <c r="M4">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L4">
-        <v>43</v>
-      </c>
-      <c r="M4">
-        <v>43</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,37 +857,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6176470588235294</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8664921465968587</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>22</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5789473684210527</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.839622641509434</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L10">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5675675675675675</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5666666666666667</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8098591549295775</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4656084656084656</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C13">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4321705426356589</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C14">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D14">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,49 +1307,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4117647058823529</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L15">
+        <v>85</v>
+      </c>
+      <c r="M15">
+        <v>85</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>21</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,16 +1378,16 @@
         <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,7 +1407,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3611111111111111</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1392,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7890625</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3466666666666667</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,31 +1475,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>13</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2909090909090909</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2751677852348993</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1948051948051948</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1587301587301587</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1642,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,13 +1707,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06702412868632708</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.638235294117647</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>123</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,37 +1757,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01584734799482536</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3043</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,49 +1807,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009882352941176471</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2104</v>
+        <v>335</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6292517006802721</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L25">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,37 +1857,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007602153943617358</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3133</v>
+        <v>284</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1870,17 +1903,41 @@
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.01715765619941729</v>
+      </c>
+      <c r="C27">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.75</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3036</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6170212765957447</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1892,21 +1949,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01475694444444444</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0.35</v>
+      </c>
+      <c r="F28">
+        <v>0.65</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1135</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1918,21 +1999,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01368570080226522</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>0.45</v>
+      </c>
+      <c r="F29">
+        <v>0.55</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2090</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6108786610878661</v>
+        <v>0.66</v>
       </c>
       <c r="L29">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1944,21 +2049,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.009223918575063612</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>0.66</v>
+      </c>
+      <c r="F30">
+        <v>0.34</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3115</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1970,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1996,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2022,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.550561797752809</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2048,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2074,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4523809523809524</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2100,47 +2229,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.392156862745098</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.3777777777777778</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2152,21 +2281,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.3561643835616438</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2178,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.3333333333333333</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2204,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.2982456140350877</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2230,21 +2359,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.2083333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2256,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K42">
-        <v>0.203125</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2282,21 +2411,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>0.06574394463667819</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2308,47 +2437,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>270</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K44">
-        <v>0.04262295081967213</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>292</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>0.0360576923076923</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2360,47 +2489,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>401</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K46">
-        <v>0.01455767077267637</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>880</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K47">
-        <v>0.0144284128745838</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2412,85 +2541,267 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>888</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="K48">
-        <v>0.01384954359458609</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N48">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>3133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.008482563619227144</v>
+        <v>0.28125</v>
       </c>
       <c r="L49">
         <v>18</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N49">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>2104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.004905166775670372</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L51">
+        <v>16</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K52">
+        <v>0.05190311418685121</v>
+      </c>
+      <c r="L52">
         <v>15</v>
       </c>
-      <c r="M50">
-        <v>64</v>
-      </c>
-      <c r="N50">
-        <v>0.23</v>
-      </c>
-      <c r="O50">
-        <v>0.77</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>3043</v>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53">
+        <v>0.04086538461538462</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <v>17</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K54">
+        <v>0.02555555555555556</v>
+      </c>
+      <c r="L54">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>24</v>
+      </c>
+      <c r="N54">
+        <v>0.96</v>
+      </c>
+      <c r="O54">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55">
+        <v>0.01796973518284994</v>
+      </c>
+      <c r="L55">
+        <v>57</v>
+      </c>
+      <c r="M55">
+        <v>86</v>
+      </c>
+      <c r="N55">
+        <v>0.66</v>
+      </c>
+      <c r="O55">
+        <v>0.34</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56">
+        <v>0.01135288552507096</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>53</v>
+      </c>
+      <c r="N56">
+        <v>0.45</v>
+      </c>
+      <c r="O56">
+        <v>0.55</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57">
+        <v>0.005893909626719057</v>
+      </c>
+      <c r="L57">
+        <v>18</v>
+      </c>
+      <c r="M57">
+        <v>71</v>
+      </c>
+      <c r="N57">
+        <v>0.25</v>
+      </c>
+      <c r="O57">
+        <v>0.75</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3036</v>
       </c>
     </row>
   </sheetData>
